--- a/data/学生评选.xlsx
+++ b/data/学生评选.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiaoxiao/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiaoxiao/mywriting/excel_python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="1040" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3520" yWindow="1840" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="成绩表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>张三</t>
     <rPh sb="0" eb="1">
@@ -126,13 +126,6 @@
     <t>英语成绩</t>
     <rPh sb="0" eb="1">
       <t>ying yu cheng ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩表</t>
-    <rPh sb="0" eb="1">
-      <t>cheng ji biao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,197 +557,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E4">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>89</v>
       </c>
       <c r="E6">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E7">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E10">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>43</v>
-      </c>
-      <c r="D11">
-        <v>54</v>
-      </c>
-      <c r="E11">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -772,7 +753,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -782,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -812,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -820,10 +801,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -831,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,10 +831,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -861,10 +842,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
